--- a/tests/bin/sample_COUNTER_R5_reports/sample_PR_reports.xlsx
+++ b/tests/bin/sample_COUNTER_R5_reports/sample_PR_reports.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PQ 19-20" sheetId="1" r:id="rId1"/>
@@ -797,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
@@ -2545,12 +2545,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:T6"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="B2:T2"/>
-    <mergeCell ref="B3:T3"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B5:T5"/>
     <mergeCell ref="B13:T13"/>
     <mergeCell ref="B7:T7"/>
     <mergeCell ref="B8:T8"/>
@@ -2558,6 +2552,12 @@
     <mergeCell ref="B10:T10"/>
     <mergeCell ref="B11:T11"/>
     <mergeCell ref="B12:T12"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B3:T3"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3043,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>

--- a/tests/bin/sample_COUNTER_R5_reports/sample_PR_reports.xlsx
+++ b/tests/bin/sample_COUNTER_R5_reports/sample_PR_reports.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PQ 19-20" sheetId="1" r:id="rId1"/>
     <sheet name="EBSCO 19-20" sheetId="4" r:id="rId2"/>
     <sheet name="Gale 19-20" sheetId="3" r:id="rId3"/>
+    <sheet name="Duke 19-20" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="80">
   <si>
     <t>Report_Name</t>
   </si>
@@ -344,6 +345,33 @@
   </si>
   <si>
     <t>2022-10-20T16:47:56Z</t>
+  </si>
+  <si>
+    <t>FLORIDA STATE UNIV</t>
+  </si>
+  <si>
+    <t>Silverchair:280</t>
+  </si>
+  <si>
+    <t>Total_Item_Investigations; Total_Item_Requests; Unique_Item_Investigations; Unique_Item_Requests; Unique_Title_Investigations; Unique_Title_Requests</t>
+  </si>
+  <si>
+    <t>Access_Method=Regular; Data_Type=Book|Journal|Multimedia|Article</t>
+  </si>
+  <si>
+    <t>Attributes_To_Show=Access_Method|Data_Type</t>
+  </si>
+  <si>
+    <t>Error 3060 Invalid ReportFilter Value: Not implemented: TDM; Error 3060 Invalid ReportFilter Value: Invalid Data Type: Section; Error 3060 Invalid ReportFilter Value: Invalid Section Type: Section; Error 3050 Parameter Not Recognized in this Context: Invalid Attribute: Access_Type; Error 3050 Parameter Not Recognized in this Context: Invalid Attribute: Section_Type; Error 3050 Parameter Not Recognized in this Context: Invalid Attribute: Yop; Error 3050 Parameter Not Recognized in this Context: Invalid Attribute: Authors; Error 3050 Parameter Not Recognized in this Context: Invalid Attribute: Publication_Date; Error 3050 Parameter Not Recognized in this Context: Invalid Attribute: Article_Version</t>
+  </si>
+  <si>
+    <t>2023-02-15T15:19:57Z</t>
+  </si>
+  <si>
+    <t>Silverchair</t>
+  </si>
+  <si>
+    <t>Duke University Press</t>
   </si>
 </sst>
 </file>
@@ -464,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -514,13 +542,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,333 +842,333 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="19">
         <v>5</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
@@ -2551,12 +2580,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:T6"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="B2:T2"/>
-    <mergeCell ref="B3:T3"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B5:T5"/>
     <mergeCell ref="B13:T13"/>
     <mergeCell ref="B7:T7"/>
     <mergeCell ref="B8:T8"/>
@@ -2564,6 +2587,12 @@
     <mergeCell ref="B10:T10"/>
     <mergeCell ref="B11:T11"/>
     <mergeCell ref="B12:T12"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B3:T3"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2574,2010 +2603,2010 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="O14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>320072</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>19959</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <v>13308</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <v>34443</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <v>41408</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="18">
         <v>34009</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="18">
         <v>20493</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="18">
         <v>24380</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="18">
         <v>34499</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="18">
         <v>29658</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="18">
         <v>35814</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="18">
         <v>13942</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="18">
         <v>18159</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>157387</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>9758</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>6643</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <v>17093</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <v>17831</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="18">
         <v>14652</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <v>9897</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="18">
         <v>12543</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="18">
         <v>16929</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="18">
         <v>14873</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="18">
         <v>18758</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="18">
         <v>8545</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="18">
         <v>9865</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>228774</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>13763</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="18">
         <v>9239</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <v>24661</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <v>29856</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="18">
         <v>24808</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="18">
         <v>14410</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="18">
         <v>17719</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="18">
         <v>25385</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="18">
         <v>21161</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="18">
         <v>25112</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="18">
         <v>9525</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="18">
         <v>13135</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>122595</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <v>7300</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <v>4465</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <v>13137</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <v>14566</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="18">
         <v>12349</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="18">
         <v>7698</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="18">
         <v>9399</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="18">
         <v>13448</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <v>11665</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="18">
         <v>14834</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="18">
         <v>6021</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q18" s="18">
         <v>7713</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>227938</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>13718</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="18">
         <v>9181</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="18">
         <v>24607</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <v>29753</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="18">
         <v>24717</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="18">
         <v>14361</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="18">
         <v>17650</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="18">
         <v>25281</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="18">
         <v>21084</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="18">
         <v>25021</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="18">
         <v>9484</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="18">
         <v>13081</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>122421</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>7294</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="18">
         <v>4446</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <v>13130</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="18">
         <v>14546</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="18">
         <v>12307</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="18">
         <v>7693</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="18">
         <v>9388</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="18">
         <v>13432</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="18">
         <v>11656</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="18">
         <v>14813</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="18">
         <v>6011</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="18">
         <v>7705</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>141594</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>9854</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <v>3652</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="18">
         <v>10202</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="18">
         <v>18509</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="18">
         <v>12258</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="18">
         <v>8393</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="18">
         <v>8242</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="18">
         <v>14887</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="18">
         <v>17540</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="18">
         <v>19240</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="18">
         <v>7336</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="18">
         <v>11481</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>10411</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>750</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <v>380</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="18">
         <v>838</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <v>1225</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="18">
         <v>1122</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="18">
         <v>501</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="18">
         <v>1155</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="18">
         <v>1217</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N22" s="18">
         <v>1017</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="18">
         <v>744</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="18">
         <v>560</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="18">
         <v>902</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>121711</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <v>8371</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <v>3160</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <v>8677</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <v>15787</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="18">
         <v>10622</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="18">
         <v>6967</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="18">
         <v>7217</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="18">
         <v>12750</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N23" s="18">
         <v>15157</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="18">
         <v>16760</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="18">
         <v>6431</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="18">
         <v>9812</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>8918</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>623</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <v>343</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="18">
         <v>713</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <v>1058</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="18">
         <v>963</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="18">
         <v>444</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="18">
         <v>975</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="18">
         <v>1036</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N24" s="18">
         <v>860</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="18">
         <v>651</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="18">
         <v>502</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="18">
         <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>1622950</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <v>132450</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="18">
         <v>34787</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="18">
         <v>136592</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="18">
         <v>276209</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="18">
         <v>179631</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="18">
         <v>94386</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="18">
         <v>81537</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="18">
         <v>194875</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="18">
         <v>165314</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="18">
         <v>167728</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="18">
         <v>52972</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="18">
         <v>106469</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <v>511095</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <v>40076</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="18">
         <v>10874</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="18">
         <v>40037</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="18">
         <v>83184</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="18">
         <v>55079</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="18">
         <v>29437</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="18">
         <v>26690</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="18">
         <v>62267</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="18">
         <v>54970</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="18">
         <v>55813</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="18">
         <v>17057</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="18">
         <v>35611</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>1144755</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <v>92709</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <v>26914</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="18">
         <v>96376</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <v>189464</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="18">
         <v>129398</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="18">
         <v>69836</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="18">
         <v>58258</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="18">
         <v>131339</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N27" s="18">
         <v>114672</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O27" s="18">
         <v>122049</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P27" s="18">
         <v>38783</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="18">
         <v>74957</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>397534</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <v>30836</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <v>9089</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="18">
         <v>30953</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="18">
         <v>63138</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="18">
         <v>43075</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="18">
         <v>23715</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="18">
         <v>21167</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="18">
         <v>47493</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N28" s="18">
         <v>42574</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O28" s="18">
         <v>44152</v>
       </c>
-      <c r="P28" s="19">
+      <c r="P28" s="18">
         <v>13726</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="Q28" s="18">
         <v>27616</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="18" t="s">
+      <c r="C29" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>288</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <v>27</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="18">
         <v>6</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="18">
         <v>24</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <v>31</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="18">
         <v>42</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="18">
         <v>4</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="18">
         <v>35</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="18">
         <v>61</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N29" s="18">
         <v>19</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="18">
         <v>18</v>
       </c>
-      <c r="P29" s="19">
+      <c r="P29" s="18">
         <v>9</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="Q29" s="18">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="18" t="s">
+      <c r="C30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>261</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <v>21</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <v>6</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="18">
         <v>21</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="18">
         <v>29</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="18">
         <v>39</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="18">
         <v>4</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="18">
         <v>29</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="18">
         <v>59</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="18">
         <v>17</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O30" s="18">
         <v>17</v>
       </c>
-      <c r="P30" s="19">
+      <c r="P30" s="18">
         <v>9</v>
       </c>
-      <c r="Q30" s="19">
+      <c r="Q30" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>3</v>
       </c>
-      <c r="F31" s="19">
-        <v>0</v>
-      </c>
-      <c r="G31" s="19">
-        <v>0</v>
-      </c>
-      <c r="H31" s="19">
-        <v>0</v>
-      </c>
-      <c r="I31" s="19">
-        <v>0</v>
-      </c>
-      <c r="J31" s="19">
-        <v>0</v>
-      </c>
-      <c r="K31" s="19">
-        <v>0</v>
-      </c>
-      <c r="L31" s="19">
-        <v>0</v>
-      </c>
-      <c r="M31" s="19">
-        <v>0</v>
-      </c>
-      <c r="N31" s="19">
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18">
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
+        <v>0</v>
+      </c>
+      <c r="K31" s="18">
+        <v>0</v>
+      </c>
+      <c r="L31" s="18">
+        <v>0</v>
+      </c>
+      <c r="M31" s="18">
+        <v>0</v>
+      </c>
+      <c r="N31" s="18">
         <v>2</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O31" s="18">
         <v>1</v>
       </c>
-      <c r="P31" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="19">
+      <c r="P31" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>2</v>
       </c>
-      <c r="F32" s="19">
-        <v>0</v>
-      </c>
-      <c r="G32" s="19">
-        <v>0</v>
-      </c>
-      <c r="H32" s="19">
-        <v>0</v>
-      </c>
-      <c r="I32" s="19">
-        <v>0</v>
-      </c>
-      <c r="J32" s="19">
-        <v>0</v>
-      </c>
-      <c r="K32" s="19">
-        <v>0</v>
-      </c>
-      <c r="L32" s="19">
-        <v>0</v>
-      </c>
-      <c r="M32" s="19">
-        <v>0</v>
-      </c>
-      <c r="N32" s="19">
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+      <c r="I32" s="18">
+        <v>0</v>
+      </c>
+      <c r="J32" s="18">
+        <v>0</v>
+      </c>
+      <c r="K32" s="18">
+        <v>0</v>
+      </c>
+      <c r="L32" s="18">
+        <v>0</v>
+      </c>
+      <c r="M32" s="18">
+        <v>0</v>
+      </c>
+      <c r="N32" s="18">
         <v>1</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O32" s="18">
         <v>1</v>
       </c>
-      <c r="P32" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="19">
+      <c r="P32" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="18" t="s">
+      <c r="C33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>23357</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <v>1666</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="18">
         <v>249</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="18">
         <v>1668</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="18">
         <v>5101</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="18">
         <v>2317</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="18">
         <v>1061</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="18">
         <v>1754</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="18">
         <v>3554</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N33" s="18">
         <v>2270</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="18">
         <v>2132</v>
       </c>
-      <c r="P33" s="19">
+      <c r="P33" s="18">
         <v>465</v>
       </c>
-      <c r="Q33" s="19">
+      <c r="Q33" s="18">
         <v>1120</v>
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="C34" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <v>2752</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="18">
         <v>207</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="18">
         <v>29</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="18">
         <v>259</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="18">
         <v>543</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="18">
         <v>247</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="18">
         <v>123</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="18">
         <v>80</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="18">
         <v>502</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N34" s="18">
         <v>293</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="18">
         <v>252</v>
       </c>
-      <c r="P34" s="19">
+      <c r="P34" s="18">
         <v>59</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="Q34" s="18">
         <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="18" t="s">
+      <c r="C35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <v>19045</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
         <v>1353</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="18">
         <v>205</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="18">
         <v>1262</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="18">
         <v>4203</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="18">
         <v>1943</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="18">
         <v>886</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="18">
         <v>1614</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="18">
         <v>2741</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N35" s="18">
         <v>1832</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O35" s="18">
         <v>1739</v>
       </c>
-      <c r="P35" s="19">
+      <c r="P35" s="18">
         <v>376</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q35" s="18">
         <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="18" t="s">
+      <c r="C36" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>2286</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="18">
         <v>176</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="18">
         <v>22</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="18">
         <v>220</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="18">
         <v>445</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="18">
         <v>210</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="18">
         <v>100</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="18">
         <v>71</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M36" s="18">
         <v>411</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="18">
         <v>234</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O36" s="18">
         <v>218</v>
       </c>
-      <c r="P36" s="19">
+      <c r="P36" s="18">
         <v>46</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="Q36" s="18">
         <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="18" t="s">
+      <c r="C37" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="18">
         <v>123913</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>10219</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="18">
         <v>3704</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="18">
         <v>10806</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="18">
         <v>19063</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="18">
         <v>14147</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="18">
         <v>7190</v>
       </c>
-      <c r="L37" s="19">
+      <c r="L37" s="18">
         <v>7471</v>
       </c>
-      <c r="M37" s="19">
+      <c r="M37" s="18">
         <v>14391</v>
       </c>
-      <c r="N37" s="19">
+      <c r="N37" s="18">
         <v>11863</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O37" s="18">
         <v>12098</v>
       </c>
-      <c r="P37" s="19">
+      <c r="P37" s="18">
         <v>3612</v>
       </c>
-      <c r="Q37" s="19">
+      <c r="Q37" s="18">
         <v>9349</v>
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="18">
         <v>7288</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="18">
         <v>628</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="18">
         <v>125</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="18">
         <v>446</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="18">
         <v>953</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="18">
         <v>643</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="18">
         <v>389</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L38" s="18">
         <v>318</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M38" s="18">
         <v>854</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N38" s="18">
         <v>602</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O38" s="18">
         <v>764</v>
       </c>
-      <c r="P38" s="19">
+      <c r="P38" s="18">
         <v>259</v>
       </c>
-      <c r="Q38" s="19">
+      <c r="Q38" s="18">
         <v>1307</v>
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="18">
         <v>111172</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="18">
         <v>9060</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="18">
         <v>3387</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="18">
         <v>9691</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="18">
         <v>17147</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="18">
         <v>12764</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="18">
         <v>6487</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="18">
         <v>6746</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="18">
         <v>12871</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N39" s="18">
         <v>10598</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="18">
         <v>10982</v>
       </c>
-      <c r="P39" s="19">
+      <c r="P39" s="18">
         <v>3219</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="Q39" s="18">
         <v>8220</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="18" t="s">
+      <c r="C40" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="18">
         <v>5658</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="18">
         <v>478</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="18">
         <v>101</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="18">
         <v>332</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="18">
         <v>743</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="18">
         <v>513</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="18">
         <v>295</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="18">
         <v>263</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M40" s="18">
         <v>613</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N40" s="18">
         <v>491</v>
       </c>
-      <c r="O40" s="19">
+      <c r="O40" s="18">
         <v>619</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P40" s="18">
         <v>194</v>
       </c>
-      <c r="Q40" s="19">
+      <c r="Q40" s="18">
         <v>1016</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="18">
         <v>1635621</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="18">
         <v>125168</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="18">
         <v>49807</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="18">
         <v>154330</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="18">
         <v>251737</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="18">
         <v>175365</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="18">
         <v>97847</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="18">
         <v>100151</v>
       </c>
-      <c r="M41" s="19">
+      <c r="M41" s="18">
         <v>188480</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N41" s="18">
         <v>154974</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O41" s="18">
         <v>169345</v>
       </c>
-      <c r="P41" s="19">
+      <c r="P41" s="18">
         <v>62635</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="Q41" s="18">
         <v>105782</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="18" t="s">
+      <c r="C42" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="18">
         <v>841</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="18">
         <v>84</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="18">
         <v>16</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="18">
         <v>45</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="18">
         <v>125</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="18">
         <v>81</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="18">
         <v>48</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="18">
         <v>67</v>
       </c>
-      <c r="M42" s="19">
+      <c r="M42" s="18">
         <v>92</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N42" s="18">
         <v>114</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O42" s="18">
         <v>84</v>
       </c>
-      <c r="P42" s="19">
+      <c r="P42" s="18">
         <v>31</v>
       </c>
-      <c r="Q42" s="19">
+      <c r="Q42" s="18">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="18" t="s">
+      <c r="C43" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="18">
         <v>265</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="18">
         <v>38</v>
       </c>
-      <c r="G43" s="19">
-        <v>0</v>
-      </c>
-      <c r="H43" s="19">
+      <c r="G43" s="18">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
         <v>16</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="18">
         <v>36</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="18">
         <v>19</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K43" s="18">
         <v>11</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="18">
         <v>25</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M43" s="18">
         <v>32</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N43" s="18">
         <v>36</v>
       </c>
-      <c r="O43" s="19">
+      <c r="O43" s="18">
         <v>33</v>
       </c>
-      <c r="P43" s="19">
+      <c r="P43" s="18">
         <v>5</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="Q43" s="18">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="18" t="s">
+      <c r="C44" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="18">
         <v>597</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="18">
         <v>44</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="18">
         <v>15</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="18">
         <v>33</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="18">
         <v>91</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="18">
         <v>66</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="18">
         <v>41</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="18">
         <v>49</v>
       </c>
-      <c r="M44" s="19">
+      <c r="M44" s="18">
         <v>60</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N44" s="18">
         <v>73</v>
       </c>
-      <c r="O44" s="19">
+      <c r="O44" s="18">
         <v>55</v>
       </c>
-      <c r="P44" s="19">
-        <v>28</v>
-      </c>
-      <c r="Q44" s="19">
+      <c r="P44" s="18">
+        <v>28</v>
+      </c>
+      <c r="Q44" s="18">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="18" t="s">
+      <c r="C45" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="18">
         <v>227</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="18">
         <v>32</v>
       </c>
-      <c r="G45" s="19">
-        <v>0</v>
-      </c>
-      <c r="H45" s="19">
+      <c r="G45" s="18">
+        <v>0</v>
+      </c>
+      <c r="H45" s="18">
         <v>14</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="18">
         <v>32</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J45" s="18">
         <v>18</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="18">
         <v>10</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="18">
         <v>22</v>
       </c>
-      <c r="M45" s="19">
-        <v>28</v>
-      </c>
-      <c r="N45" s="19">
+      <c r="M45" s="18">
+        <v>28</v>
+      </c>
+      <c r="N45" s="18">
         <v>29</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O45" s="18">
         <v>25</v>
       </c>
-      <c r="P45" s="19">
+      <c r="P45" s="18">
         <v>4</v>
       </c>
-      <c r="Q45" s="19">
+      <c r="Q45" s="18">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="18" t="s">
+      <c r="C46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="18">
         <v>16</v>
       </c>
-      <c r="F46" s="19">
-        <v>0</v>
-      </c>
-      <c r="G46" s="19">
-        <v>0</v>
-      </c>
-      <c r="H46" s="19">
+      <c r="F46" s="18">
+        <v>0</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0</v>
+      </c>
+      <c r="H46" s="18">
         <v>2</v>
       </c>
-      <c r="I46" s="19">
-        <v>0</v>
-      </c>
-      <c r="J46" s="19">
+      <c r="I46" s="18">
+        <v>0</v>
+      </c>
+      <c r="J46" s="18">
         <v>2</v>
       </c>
-      <c r="K46" s="19">
-        <v>0</v>
-      </c>
-      <c r="L46" s="19">
+      <c r="K46" s="18">
+        <v>0</v>
+      </c>
+      <c r="L46" s="18">
         <v>1</v>
       </c>
-      <c r="M46" s="19">
+      <c r="M46" s="18">
         <v>1</v>
       </c>
-      <c r="N46" s="19">
-        <v>0</v>
-      </c>
-      <c r="O46" s="19">
+      <c r="N46" s="18">
+        <v>0</v>
+      </c>
+      <c r="O46" s="18">
         <v>10</v>
       </c>
-      <c r="P46" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="19">
+      <c r="P46" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="18" t="s">
+      <c r="C47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="18">
         <v>2</v>
       </c>
-      <c r="F47" s="19">
-        <v>0</v>
-      </c>
-      <c r="G47" s="19">
-        <v>0</v>
-      </c>
-      <c r="H47" s="19">
-        <v>0</v>
-      </c>
-      <c r="I47" s="19">
-        <v>0</v>
-      </c>
-      <c r="J47" s="19">
-        <v>0</v>
-      </c>
-      <c r="K47" s="19">
-        <v>0</v>
-      </c>
-      <c r="L47" s="19">
-        <v>0</v>
-      </c>
-      <c r="M47" s="19">
-        <v>0</v>
-      </c>
-      <c r="N47" s="19">
-        <v>0</v>
-      </c>
-      <c r="O47" s="19">
+      <c r="F47" s="18">
+        <v>0</v>
+      </c>
+      <c r="G47" s="18">
+        <v>0</v>
+      </c>
+      <c r="H47" s="18">
+        <v>0</v>
+      </c>
+      <c r="I47" s="18">
+        <v>0</v>
+      </c>
+      <c r="J47" s="18">
+        <v>0</v>
+      </c>
+      <c r="K47" s="18">
+        <v>0</v>
+      </c>
+      <c r="L47" s="18">
+        <v>0</v>
+      </c>
+      <c r="M47" s="18">
+        <v>0</v>
+      </c>
+      <c r="N47" s="18">
+        <v>0</v>
+      </c>
+      <c r="O47" s="18">
         <v>2</v>
       </c>
-      <c r="P47" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="19">
+      <c r="P47" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="18" t="s">
+      <c r="C48" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="18">
         <v>10</v>
       </c>
-      <c r="F48" s="19">
-        <v>0</v>
-      </c>
-      <c r="G48" s="19">
-        <v>0</v>
-      </c>
-      <c r="H48" s="19">
+      <c r="F48" s="18">
+        <v>0</v>
+      </c>
+      <c r="G48" s="18">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18">
         <v>1</v>
       </c>
-      <c r="I48" s="19">
-        <v>0</v>
-      </c>
-      <c r="J48" s="19">
+      <c r="I48" s="18">
+        <v>0</v>
+      </c>
+      <c r="J48" s="18">
         <v>2</v>
       </c>
-      <c r="K48" s="19">
-        <v>0</v>
-      </c>
-      <c r="L48" s="19">
+      <c r="K48" s="18">
+        <v>0</v>
+      </c>
+      <c r="L48" s="18">
         <v>1</v>
       </c>
-      <c r="M48" s="19">
+      <c r="M48" s="18">
         <v>1</v>
       </c>
-      <c r="N48" s="19">
-        <v>0</v>
-      </c>
-      <c r="O48" s="19">
+      <c r="N48" s="18">
+        <v>0</v>
+      </c>
+      <c r="O48" s="18">
         <v>5</v>
       </c>
-      <c r="P48" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="19">
+      <c r="P48" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="18" t="s">
+      <c r="C49" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="18">
         <v>2</v>
       </c>
-      <c r="F49" s="19">
-        <v>0</v>
-      </c>
-      <c r="G49" s="19">
-        <v>0</v>
-      </c>
-      <c r="H49" s="19">
-        <v>0</v>
-      </c>
-      <c r="I49" s="19">
-        <v>0</v>
-      </c>
-      <c r="J49" s="19">
-        <v>0</v>
-      </c>
-      <c r="K49" s="19">
-        <v>0</v>
-      </c>
-      <c r="L49" s="19">
-        <v>0</v>
-      </c>
-      <c r="M49" s="19">
-        <v>0</v>
-      </c>
-      <c r="N49" s="19">
-        <v>0</v>
-      </c>
-      <c r="O49" s="19">
+      <c r="F49" s="18">
+        <v>0</v>
+      </c>
+      <c r="G49" s="18">
+        <v>0</v>
+      </c>
+      <c r="H49" s="18">
+        <v>0</v>
+      </c>
+      <c r="I49" s="18">
+        <v>0</v>
+      </c>
+      <c r="J49" s="18">
+        <v>0</v>
+      </c>
+      <c r="K49" s="18">
+        <v>0</v>
+      </c>
+      <c r="L49" s="18">
+        <v>0</v>
+      </c>
+      <c r="M49" s="18">
+        <v>0</v>
+      </c>
+      <c r="N49" s="18">
+        <v>0</v>
+      </c>
+      <c r="O49" s="18">
         <v>2</v>
       </c>
-      <c r="P49" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="19">
+      <c r="P49" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="18">
         <v>0</v>
       </c>
     </row>
@@ -6184,4 +6213,671 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="20">
+        <v>43647</v>
+      </c>
+      <c r="G14" s="20">
+        <v>43678</v>
+      </c>
+      <c r="H14" s="20">
+        <v>43709</v>
+      </c>
+      <c r="I14" s="20">
+        <v>43739</v>
+      </c>
+      <c r="J14" s="20">
+        <v>43770</v>
+      </c>
+      <c r="K14" s="20">
+        <v>43800</v>
+      </c>
+      <c r="L14" s="20">
+        <v>43831</v>
+      </c>
+      <c r="M14" s="20">
+        <v>43862</v>
+      </c>
+      <c r="N14" s="20">
+        <v>43891</v>
+      </c>
+      <c r="O14" s="20">
+        <v>43922</v>
+      </c>
+      <c r="P14" s="20">
+        <v>43952</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="17">
+        <v>14</v>
+      </c>
+      <c r="G15" s="17">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17">
+        <v>36</v>
+      </c>
+      <c r="I15" s="17">
+        <v>46</v>
+      </c>
+      <c r="J15" s="17">
+        <v>62</v>
+      </c>
+      <c r="K15" s="17">
+        <v>62</v>
+      </c>
+      <c r="L15" s="17">
+        <v>50</v>
+      </c>
+      <c r="M15" s="17">
+        <v>38</v>
+      </c>
+      <c r="N15" s="17">
+        <v>52</v>
+      </c>
+      <c r="O15" s="17">
+        <v>24</v>
+      </c>
+      <c r="P15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="17">
+        <v>216</v>
+      </c>
+      <c r="G16" s="17">
+        <v>178</v>
+      </c>
+      <c r="H16" s="17">
+        <v>684</v>
+      </c>
+      <c r="I16" s="17">
+        <v>3252</v>
+      </c>
+      <c r="J16" s="17">
+        <v>522</v>
+      </c>
+      <c r="K16" s="17">
+        <v>388</v>
+      </c>
+      <c r="L16" s="17">
+        <v>308</v>
+      </c>
+      <c r="M16" s="17">
+        <v>472</v>
+      </c>
+      <c r="N16" s="17">
+        <v>284</v>
+      </c>
+      <c r="O16" s="17">
+        <v>188</v>
+      </c>
+      <c r="P16" s="17">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="17">
+        <v>118</v>
+      </c>
+      <c r="G17" s="17">
+        <v>94</v>
+      </c>
+      <c r="H17" s="17">
+        <v>406</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1744</v>
+      </c>
+      <c r="J17" s="17">
+        <v>254</v>
+      </c>
+      <c r="K17" s="17">
+        <v>224</v>
+      </c>
+      <c r="L17" s="17">
+        <v>176</v>
+      </c>
+      <c r="M17" s="17">
+        <v>266</v>
+      </c>
+      <c r="N17" s="17">
+        <v>148</v>
+      </c>
+      <c r="O17" s="17">
+        <v>116</v>
+      </c>
+      <c r="P17" s="17">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
+        <v>4</v>
+      </c>
+      <c r="M18" s="17">
+        <v>0</v>
+      </c>
+      <c r="N18" s="17">
+        <v>32</v>
+      </c>
+      <c r="O18" s="17">
+        <v>18</v>
+      </c>
+      <c r="P18" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="17">
+        <v>10</v>
+      </c>
+      <c r="G19" s="17">
+        <v>10</v>
+      </c>
+      <c r="H19" s="17">
+        <v>24</v>
+      </c>
+      <c r="I19" s="17">
+        <v>24</v>
+      </c>
+      <c r="J19" s="17">
+        <v>38</v>
+      </c>
+      <c r="K19" s="17">
+        <v>32</v>
+      </c>
+      <c r="L19" s="17">
+        <v>26</v>
+      </c>
+      <c r="M19" s="17">
+        <v>30</v>
+      </c>
+      <c r="N19" s="17">
+        <v>50</v>
+      </c>
+      <c r="O19" s="17">
+        <v>20</v>
+      </c>
+      <c r="P19" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="17">
+        <v>128</v>
+      </c>
+      <c r="G20" s="17">
+        <v>108</v>
+      </c>
+      <c r="H20" s="17">
+        <v>364</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1576</v>
+      </c>
+      <c r="J20" s="17">
+        <v>320</v>
+      </c>
+      <c r="K20" s="17">
+        <v>242</v>
+      </c>
+      <c r="L20" s="17">
+        <v>204</v>
+      </c>
+      <c r="M20" s="17">
+        <v>282</v>
+      </c>
+      <c r="N20" s="17">
+        <v>168</v>
+      </c>
+      <c r="O20" s="17">
+        <v>130</v>
+      </c>
+      <c r="P20" s="17">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="17">
+        <v>90</v>
+      </c>
+      <c r="G21" s="17">
+        <v>76</v>
+      </c>
+      <c r="H21" s="17">
+        <v>290</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1414</v>
+      </c>
+      <c r="J21" s="17">
+        <v>216</v>
+      </c>
+      <c r="K21" s="17">
+        <v>194</v>
+      </c>
+      <c r="L21" s="17">
+        <v>154</v>
+      </c>
+      <c r="M21" s="17">
+        <v>204</v>
+      </c>
+      <c r="N21" s="17">
+        <v>130</v>
+      </c>
+      <c r="O21" s="17">
+        <v>104</v>
+      </c>
+      <c r="P21" s="17">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
+        <v>4</v>
+      </c>
+      <c r="M22" s="17">
+        <v>0</v>
+      </c>
+      <c r="N22" s="17">
+        <v>32</v>
+      </c>
+      <c r="O22" s="17">
+        <v>20</v>
+      </c>
+      <c r="P22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="17">
+        <v>10</v>
+      </c>
+      <c r="G23" s="17">
+        <v>10</v>
+      </c>
+      <c r="H23" s="17">
+        <v>20</v>
+      </c>
+      <c r="I23" s="17">
+        <v>24</v>
+      </c>
+      <c r="J23" s="17">
+        <v>32</v>
+      </c>
+      <c r="K23" s="17">
+        <v>22</v>
+      </c>
+      <c r="L23" s="17">
+        <v>24</v>
+      </c>
+      <c r="M23" s="17">
+        <v>24</v>
+      </c>
+      <c r="N23" s="17">
+        <v>18</v>
+      </c>
+      <c r="O23" s="17">
+        <v>6</v>
+      </c>
+      <c r="P23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17">
+        <v>4</v>
+      </c>
+      <c r="M24" s="17">
+        <v>0</v>
+      </c>
+      <c r="N24" s="17">
+        <v>2</v>
+      </c>
+      <c r="O24" s="17">
+        <v>2</v>
+      </c>
+      <c r="P24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>